--- a/doc/新三板企业PEVC投资明细.xlsx
+++ b/doc/新三板企业PEVC投资明细.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\data\一阶段数据样本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Moon/WorkSpace/github.com/east-money-spider/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{123C17D0-79E5-4AC1-9B4D-32843E9A6DC2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A807EEE8-786A-154A-BD84-1A97E098F67F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="8376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wind资讯" sheetId="1" r:id="rId1"/>
@@ -3570,10 +3570,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="###,###,###,##0.0000"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-m\-d;@"/>
+    <numFmt numFmtId="176" formatCode="###,###,###,##0.0000"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3584,6 +3584,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3632,10 +3633,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3644,10 +3645,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3656,7 +3657,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3670,7 +3671,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
@@ -3947,25 +3948,25 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A377" sqref="A377:XFD377"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="3"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.77734375" style="3"/>
-    <col min="8" max="8" width="16" style="3"/>
-    <col min="9" max="9" width="20.33203125" style="3"/>
-    <col min="10" max="10" width="17.109375" style="4"/>
-    <col min="11" max="11" width="12.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="29.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
         <v>21</v>
       </c>
@@ -4132,7 +4133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="13" t="s">
         <v>31</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="13" t="s">
         <v>40</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="13" t="s">
         <v>42</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="13" t="s">
         <v>44</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="13" t="s">
         <v>46</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="13" t="s">
         <v>49</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="13" t="s">
         <v>54</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="13" t="s">
         <v>56</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="13" t="s">
         <v>58</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="13" t="s">
         <v>63</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="13" t="s">
         <v>65</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="13" t="s">
         <v>67</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="13" t="s">
         <v>69</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="13" t="s">
         <v>71</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="13" t="s">
         <v>73</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="13" t="s">
         <v>75</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="13" t="s">
         <v>77</v>
       </c>
@@ -4990,7 +4991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="13" t="s">
         <v>79</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="13" t="s">
         <v>81</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="13" t="s">
         <v>85</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="13" t="s">
         <v>87</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="13" t="s">
         <v>90</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="13" t="s">
         <v>92</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="13" t="s">
         <v>94</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="13" t="s">
         <v>97</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="13" t="s">
         <v>99</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="13" t="s">
         <v>102</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="13" t="s">
         <v>104</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="13" t="s">
         <v>106</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="13" t="s">
         <v>108</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="13" t="s">
         <v>110</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="13" t="s">
         <v>112</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="13" t="s">
         <v>114</v>
       </c>
@@ -5543,7 +5544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="13" t="s">
         <v>116</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="13" t="s">
         <v>118</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="13" t="s">
         <v>120</v>
       </c>
@@ -5636,7 +5637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="13" t="s">
         <v>122</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="13" t="s">
         <v>126</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="13" t="s">
         <v>128</v>
       </c>
@@ -5764,7 +5765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="13" t="s">
         <v>130</v>
       </c>
@@ -5795,7 +5796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="13" t="s">
         <v>132</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="13" t="s">
         <v>134</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="13" t="s">
         <v>136</v>
       </c>
@@ -5896,7 +5897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="13" t="s">
         <v>138</v>
       </c>
@@ -5929,7 +5930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="13" t="s">
         <v>140</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="13" t="s">
         <v>142</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="13" t="s">
         <v>144</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="13" t="s">
         <v>146</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="13" t="s">
         <v>148</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="13" t="s">
         <v>150</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="13" t="s">
         <v>152</v>
       </c>
@@ -6152,7 +6153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="13" t="s">
         <v>154</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="13" t="s">
         <v>156</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="13" t="s">
         <v>158</v>
       </c>
@@ -6251,7 +6252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="13" t="s">
         <v>160</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="13" t="s">
         <v>162</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="13" t="s">
         <v>164</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="13" t="s">
         <v>166</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="13" t="s">
         <v>168</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="13" t="s">
         <v>170</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="13" t="s">
         <v>172</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="13" t="s">
         <v>174</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="13" t="s">
         <v>176</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="13" t="s">
         <v>178</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="13" t="s">
         <v>180</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="13" t="s">
         <v>182</v>
       </c>
@@ -6637,7 +6638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="13" t="s">
         <v>184</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="13" t="s">
         <v>186</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="13" t="s">
         <v>188</v>
       </c>
@@ -6734,7 +6735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="13" t="s">
         <v>190</v>
       </c>
@@ -6767,7 +6768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" s="13" t="s">
         <v>192</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" s="13" t="s">
         <v>194</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" s="13" t="s">
         <v>196</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" s="13" t="s">
         <v>198</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" s="13" t="s">
         <v>200</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" s="13" t="s">
         <v>202</v>
       </c>
@@ -6965,7 +6966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" s="13" t="s">
         <v>204</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" s="13" t="s">
         <v>206</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" s="13" t="s">
         <v>208</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" s="13" t="s">
         <v>210</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" s="13" t="s">
         <v>212</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" s="13" t="s">
         <v>214</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="13" t="s">
         <v>216</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="13" t="s">
         <v>218</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="13" t="s">
         <v>220</v>
       </c>
@@ -7256,7 +7257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="13" t="s">
         <v>222</v>
       </c>
@@ -7287,7 +7288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="13" t="s">
         <v>224</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="13" t="s">
         <v>226</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="13" t="s">
         <v>228</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="13" t="s">
         <v>230</v>
       </c>
@@ -7425,7 +7426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="13" t="s">
         <v>232</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="13" t="s">
         <v>234</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="13" t="s">
         <v>236</v>
       </c>
@@ -7520,7 +7521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="13" t="s">
         <v>238</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="13" t="s">
         <v>240</v>
       </c>
@@ -7586,7 +7587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" s="13" t="s">
         <v>242</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="13" t="s">
         <v>244</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="13" t="s">
         <v>246</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="13" t="s">
         <v>248</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="13" t="s">
         <v>250</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="13" t="s">
         <v>253</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="13" t="s">
         <v>255</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="13" t="s">
         <v>257</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="13" t="s">
         <v>259</v>
       </c>
@@ -7877,7 +7878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="13" t="s">
         <v>261</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="13" t="s">
         <v>263</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" s="13" t="s">
         <v>265</v>
       </c>
@@ -7976,7 +7977,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" s="13" t="s">
         <v>267</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="13" t="s">
         <v>269</v>
       </c>
@@ -8040,7 +8041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="13" t="s">
         <v>271</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="13" t="s">
         <v>273</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="13" t="s">
         <v>275</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="13" t="s">
         <v>277</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="13" t="s">
         <v>279</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="13" t="s">
         <v>281</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" s="13" t="s">
         <v>283</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="13" t="s">
         <v>285</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" s="13" t="s">
         <v>287</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" s="13" t="s">
         <v>290</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" s="13" t="s">
         <v>292</v>
       </c>
@@ -8401,7 +8402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" s="13" t="s">
         <v>294</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="13" t="s">
         <v>296</v>
       </c>
@@ -8469,7 +8470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" s="13" t="s">
         <v>298</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" s="13" t="s">
         <v>300</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="13" t="s">
         <v>302</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="13" t="s">
         <v>304</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="13" t="s">
         <v>306</v>
       </c>
@@ -8628,7 +8629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" s="13" t="s">
         <v>308</v>
       </c>
@@ -8659,7 +8660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" s="13" t="s">
         <v>310</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" s="13" t="s">
         <v>312</v>
       </c>
@@ -8723,7 +8724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" s="13" t="s">
         <v>314</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" s="13" t="s">
         <v>316</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" s="13" t="s">
         <v>318</v>
       </c>
@@ -8816,7 +8817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" s="13" t="s">
         <v>320</v>
       </c>
@@ -8849,7 +8850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" s="13" t="s">
         <v>322</v>
       </c>
@@ -8884,7 +8885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" s="13" t="s">
         <v>324</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" s="13" t="s">
         <v>326</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="13" t="s">
         <v>328</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="13" t="s">
         <v>330</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="13" t="s">
         <v>332</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="13" t="s">
         <v>334</v>
       </c>
@@ -9080,7 +9081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="13" t="s">
         <v>336</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="13" t="s">
         <v>338</v>
       </c>
@@ -9144,7 +9145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="13" t="s">
         <v>340</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11">
       <c r="A161" s="13" t="s">
         <v>342</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11">
       <c r="A162" s="13" t="s">
         <v>344</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11">
       <c r="A163" s="13" t="s">
         <v>346</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" s="13" t="s">
         <v>348</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="13" t="s">
         <v>350</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" s="13" t="s">
         <v>352</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167" s="13" t="s">
         <v>354</v>
       </c>
@@ -9402,7 +9403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168" s="13" t="s">
         <v>356</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169" s="13" t="s">
         <v>358</v>
       </c>
@@ -9466,7 +9467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="13" t="s">
         <v>360</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171" s="13" t="s">
         <v>362</v>
       </c>
@@ -9532,7 +9533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172" s="13" t="s">
         <v>364</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173" s="13" t="s">
         <v>366</v>
       </c>
@@ -9598,7 +9599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174" s="13" t="s">
         <v>368</v>
       </c>
@@ -9629,7 +9630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175" s="13" t="s">
         <v>370</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176" s="13" t="s">
         <v>372</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="13" t="s">
         <v>374</v>
       </c>
@@ -9722,7 +9723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178" s="13" t="s">
         <v>376</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179" s="13" t="s">
         <v>378</v>
       </c>
@@ -9788,7 +9789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11">
       <c r="A180" s="13" t="s">
         <v>380</v>
       </c>
@@ -9819,7 +9820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11">
       <c r="A181" s="13" t="s">
         <v>382</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="A182" s="13" t="s">
         <v>384</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183" s="13" t="s">
         <v>386</v>
       </c>
@@ -9916,7 +9917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184" s="13" t="s">
         <v>388</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185" s="13" t="s">
         <v>390</v>
       </c>
@@ -9980,7 +9981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186" s="13" t="s">
         <v>392</v>
       </c>
@@ -10013,7 +10014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187" s="13" t="s">
         <v>394</v>
       </c>
@@ -10044,7 +10045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188" s="13" t="s">
         <v>396</v>
       </c>
@@ -10075,7 +10076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189" s="13" t="s">
         <v>398</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190" s="13" t="s">
         <v>400</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="A191" s="13" t="s">
         <v>402</v>
       </c>
@@ -10172,7 +10173,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11">
       <c r="A192" s="13" t="s">
         <v>404</v>
       </c>
@@ -10203,7 +10204,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11">
       <c r="A193" s="13" t="s">
         <v>406</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11">
       <c r="A194" s="13" t="s">
         <v>408</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11">
       <c r="A195" s="13" t="s">
         <v>410</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11">
       <c r="A196" s="13" t="s">
         <v>412</v>
       </c>
@@ -10333,7 +10334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197" s="13" t="s">
         <v>414</v>
       </c>
@@ -10368,7 +10369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198" s="13" t="s">
         <v>416</v>
       </c>
@@ -10401,7 +10402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="A199" s="13" t="s">
         <v>418</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200" s="13" t="s">
         <v>420</v>
       </c>
@@ -10467,7 +10468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201" s="13" t="s">
         <v>422</v>
       </c>
@@ -10500,7 +10501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202" s="13" t="s">
         <v>424</v>
       </c>
@@ -10529,7 +10530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203" s="13" t="s">
         <v>426</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204" s="13" t="s">
         <v>428</v>
       </c>
@@ -10591,7 +10592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205" s="13" t="s">
         <v>430</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11">
       <c r="A206" s="13" t="s">
         <v>432</v>
       </c>
@@ -10659,7 +10660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11">
       <c r="A207" s="13" t="s">
         <v>434</v>
       </c>
@@ -10690,7 +10691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11">
       <c r="A208" s="13" t="s">
         <v>436</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11">
       <c r="A209" s="13" t="s">
         <v>438</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11">
       <c r="A210" s="13" t="s">
         <v>440</v>
       </c>
@@ -10787,7 +10788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11">
       <c r="A211" s="13" t="s">
         <v>442</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11">
       <c r="A212" s="13" t="s">
         <v>444</v>
       </c>
@@ -10851,7 +10852,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11">
       <c r="A213" s="13" t="s">
         <v>446</v>
       </c>
@@ -10882,7 +10883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11">
       <c r="A214" s="13" t="s">
         <v>448</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11">
       <c r="A215" s="13" t="s">
         <v>450</v>
       </c>
@@ -10948,7 +10949,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11">
       <c r="A216" s="13" t="s">
         <v>452</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11">
       <c r="A217" s="13" t="s">
         <v>454</v>
       </c>
@@ -11012,7 +11013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11">
       <c r="A218" s="13" t="s">
         <v>456</v>
       </c>
@@ -11043,7 +11044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11">
       <c r="A219" s="13" t="s">
         <v>458</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11">
       <c r="A220" s="13" t="s">
         <v>460</v>
       </c>
@@ -11105,7 +11106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11">
       <c r="A221" s="13" t="s">
         <v>462</v>
       </c>
@@ -11136,7 +11137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11">
       <c r="A222" s="13" t="s">
         <v>464</v>
       </c>
@@ -11169,7 +11170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11">
       <c r="A223" s="13" t="s">
         <v>466</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11">
       <c r="A224" s="13" t="s">
         <v>468</v>
       </c>
@@ -11231,7 +11232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11">
       <c r="A225" s="13" t="s">
         <v>470</v>
       </c>
@@ -11266,7 +11267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11">
       <c r="A226" s="13" t="s">
         <v>472</v>
       </c>
@@ -11297,7 +11298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11">
       <c r="A227" s="13" t="s">
         <v>474</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11">
       <c r="A228" s="13" t="s">
         <v>476</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11">
       <c r="A229" s="13" t="s">
         <v>478</v>
       </c>
@@ -11396,7 +11397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11">
       <c r="A230" s="13" t="s">
         <v>480</v>
       </c>
@@ -11427,7 +11428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11">
       <c r="A231" s="13" t="s">
         <v>482</v>
       </c>
@@ -11460,7 +11461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11">
       <c r="A232" s="13" t="s">
         <v>484</v>
       </c>
@@ -11491,7 +11492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11">
       <c r="A233" s="13" t="s">
         <v>486</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11">
       <c r="A234" s="13" t="s">
         <v>488</v>
       </c>
@@ -11553,7 +11554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11">
       <c r="A235" s="13" t="s">
         <v>490</v>
       </c>
@@ -11586,7 +11587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11">
       <c r="A236" s="13" t="s">
         <v>492</v>
       </c>
@@ -11619,7 +11620,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11">
       <c r="A237" s="13" t="s">
         <v>494</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11">
       <c r="A238" s="13" t="s">
         <v>496</v>
       </c>
@@ -11683,7 +11684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11">
       <c r="A239" s="13" t="s">
         <v>498</v>
       </c>
@@ -11716,7 +11717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11">
       <c r="A240" s="13" t="s">
         <v>500</v>
       </c>
@@ -11749,7 +11750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11">
       <c r="A241" s="13" t="s">
         <v>502</v>
       </c>
@@ -11784,7 +11785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11">
       <c r="A242" s="13" t="s">
         <v>504</v>
       </c>
@@ -11817,7 +11818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11">
       <c r="A243" s="13" t="s">
         <v>506</v>
       </c>
@@ -11850,7 +11851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11">
       <c r="A244" s="13" t="s">
         <v>508</v>
       </c>
@@ -11885,7 +11886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11">
       <c r="A245" s="13" t="s">
         <v>510</v>
       </c>
@@ -11918,7 +11919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11">
       <c r="A246" s="13" t="s">
         <v>512</v>
       </c>
@@ -11951,7 +11952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11">
       <c r="A247" s="13" t="s">
         <v>514</v>
       </c>
@@ -11984,7 +11985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11">
       <c r="A248" s="13" t="s">
         <v>516</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11">
       <c r="A249" s="13" t="s">
         <v>518</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11">
       <c r="A250" s="13" t="s">
         <v>520</v>
       </c>
@@ -12083,7 +12084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11">
       <c r="A251" s="13" t="s">
         <v>522</v>
       </c>
@@ -12116,7 +12117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11">
       <c r="A252" s="13" t="s">
         <v>524</v>
       </c>
@@ -12147,7 +12148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11">
       <c r="A253" s="13" t="s">
         <v>526</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11">
       <c r="A254" s="13" t="s">
         <v>528</v>
       </c>
@@ -12211,7 +12212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11">
       <c r="A255" s="13" t="s">
         <v>530</v>
       </c>
@@ -12242,7 +12243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11">
       <c r="A256" s="13" t="s">
         <v>532</v>
       </c>
@@ -12273,7 +12274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11">
       <c r="A257" s="13" t="s">
         <v>534</v>
       </c>
@@ -12306,7 +12307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11">
       <c r="A258" s="13" t="s">
         <v>536</v>
       </c>
@@ -12339,7 +12340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11">
       <c r="A259" s="13" t="s">
         <v>538</v>
       </c>
@@ -12370,7 +12371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11">
       <c r="A260" s="13" t="s">
         <v>540</v>
       </c>
@@ -12403,7 +12404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11">
       <c r="A261" s="13" t="s">
         <v>542</v>
       </c>
@@ -12438,7 +12439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11">
       <c r="A262" s="13" t="s">
         <v>544</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11">
       <c r="A263" s="13" t="s">
         <v>546</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11">
       <c r="A264" s="13" t="s">
         <v>548</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11">
       <c r="A265" s="13" t="s">
         <v>550</v>
       </c>
@@ -12564,7 +12565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11">
       <c r="A266" s="13" t="s">
         <v>552</v>
       </c>
@@ -12597,7 +12598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11">
       <c r="A267" s="13" t="s">
         <v>554</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11">
       <c r="A268" s="13" t="s">
         <v>556</v>
       </c>
@@ -12659,7 +12660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11">
       <c r="A269" s="13" t="s">
         <v>558</v>
       </c>
@@ -12690,7 +12691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11">
       <c r="A270" s="13" t="s">
         <v>560</v>
       </c>
@@ -12723,7 +12724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11">
       <c r="A271" s="13" t="s">
         <v>562</v>
       </c>
@@ -12756,7 +12757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11">
       <c r="A272" s="13" t="s">
         <v>564</v>
       </c>
@@ -12787,7 +12788,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11">
       <c r="A273" s="13" t="s">
         <v>566</v>
       </c>
@@ -12820,7 +12821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11">
       <c r="A274" s="13" t="s">
         <v>568</v>
       </c>
@@ -12853,7 +12854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11">
       <c r="A275" s="13" t="s">
         <v>570</v>
       </c>
@@ -12886,7 +12887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11">
       <c r="A276" s="13" t="s">
         <v>572</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11">
       <c r="A277" s="13" t="s">
         <v>574</v>
       </c>
@@ -12950,7 +12951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11">
       <c r="A278" s="13" t="s">
         <v>576</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11">
       <c r="A279" s="13" t="s">
         <v>578</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11">
       <c r="A280" s="13" t="s">
         <v>580</v>
       </c>
@@ -13055,7 +13056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11">
       <c r="A281" s="13" t="s">
         <v>582</v>
       </c>
@@ -13086,7 +13087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11">
       <c r="A282" s="13" t="s">
         <v>584</v>
       </c>
@@ -13117,7 +13118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11">
       <c r="A283" s="13" t="s">
         <v>586</v>
       </c>
@@ -13150,7 +13151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11">
       <c r="A284" s="13" t="s">
         <v>588</v>
       </c>
@@ -13185,7 +13186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11">
       <c r="A285" s="13" t="s">
         <v>590</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11">
       <c r="A286" s="13" t="s">
         <v>592</v>
       </c>
@@ -13251,7 +13252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11">
       <c r="A287" s="13" t="s">
         <v>594</v>
       </c>
@@ -13284,7 +13285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11">
       <c r="A288" s="13" t="s">
         <v>596</v>
       </c>
@@ -13317,7 +13318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11">
       <c r="A289" s="13" t="s">
         <v>598</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11">
       <c r="A290" s="13" t="s">
         <v>600</v>
       </c>
@@ -13379,7 +13380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11">
       <c r="A291" s="13" t="s">
         <v>602</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11">
       <c r="A292" s="13" t="s">
         <v>604</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11">
       <c r="A293" s="13" t="s">
         <v>606</v>
       </c>
@@ -13480,7 +13481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11">
       <c r="A294" s="13" t="s">
         <v>608</v>
       </c>
@@ -13513,7 +13514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11">
       <c r="A295" s="13" t="s">
         <v>610</v>
       </c>
@@ -13548,7 +13549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11">
       <c r="A296" s="13" t="s">
         <v>612</v>
       </c>
@@ -13581,7 +13582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11">
       <c r="A297" s="13" t="s">
         <v>614</v>
       </c>
@@ -13616,7 +13617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11">
       <c r="A298" s="13" t="s">
         <v>616</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11">
       <c r="A299" s="13" t="s">
         <v>618</v>
       </c>
@@ -13682,7 +13683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11">
       <c r="A300" s="13" t="s">
         <v>620</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11">
       <c r="A301" s="13" t="s">
         <v>622</v>
       </c>
@@ -13752,7 +13753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11">
       <c r="A302" s="13" t="s">
         <v>624</v>
       </c>
@@ -13785,7 +13786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11">
       <c r="A303" s="13" t="s">
         <v>626</v>
       </c>
@@ -13816,7 +13817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11">
       <c r="A304" s="13" t="s">
         <v>628</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11">
       <c r="A305" s="13" t="s">
         <v>630</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11">
       <c r="A306" s="13" t="s">
         <v>632</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11">
       <c r="A307" s="13" t="s">
         <v>634</v>
       </c>
@@ -13946,7 +13947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11">
       <c r="A308" s="13" t="s">
         <v>636</v>
       </c>
@@ -13979,7 +13980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11">
       <c r="A309" s="13" t="s">
         <v>638</v>
       </c>
@@ -14012,7 +14013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11">
       <c r="A310" s="13" t="s">
         <v>640</v>
       </c>
@@ -14043,7 +14044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11">
       <c r="A311" s="13" t="s">
         <v>642</v>
       </c>
@@ -14078,7 +14079,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11">
       <c r="A312" s="13" t="s">
         <v>644</v>
       </c>
@@ -14111,7 +14112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11">
       <c r="A313" s="13" t="s">
         <v>646</v>
       </c>
@@ -14144,7 +14145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11">
       <c r="A314" s="13" t="s">
         <v>648</v>
       </c>
@@ -14175,7 +14176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11">
       <c r="A315" s="13" t="s">
         <v>650</v>
       </c>
@@ -14206,7 +14207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11">
       <c r="A316" s="13" t="s">
         <v>652</v>
       </c>
@@ -14239,7 +14240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11">
       <c r="A317" s="13" t="s">
         <v>654</v>
       </c>
@@ -14274,7 +14275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11">
       <c r="A318" s="13" t="s">
         <v>656</v>
       </c>
@@ -14305,7 +14306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11">
       <c r="A319" s="13" t="s">
         <v>658</v>
       </c>
@@ -14338,7 +14339,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11">
       <c r="A320" s="13" t="s">
         <v>660</v>
       </c>
@@ -14371,7 +14372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11">
       <c r="A321" s="13" t="s">
         <v>662</v>
       </c>
@@ -14402,7 +14403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11">
       <c r="A322" s="13" t="s">
         <v>664</v>
       </c>
@@ -14437,7 +14438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11">
       <c r="A323" s="13" t="s">
         <v>666</v>
       </c>
@@ -14468,7 +14469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11">
       <c r="A324" s="13" t="s">
         <v>668</v>
       </c>
@@ -14501,7 +14502,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11">
       <c r="A325" s="13" t="s">
         <v>670</v>
       </c>
@@ -14536,7 +14537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11">
       <c r="A326" s="13" t="s">
         <v>672</v>
       </c>
@@ -14569,7 +14570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11">
       <c r="A327" s="13" t="s">
         <v>674</v>
       </c>
@@ -14600,7 +14601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11">
       <c r="A328" s="13" t="s">
         <v>676</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11">
       <c r="A329" s="13" t="s">
         <v>678</v>
       </c>
@@ -14664,7 +14665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11">
       <c r="A330" s="13" t="s">
         <v>680</v>
       </c>
@@ -14695,7 +14696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11">
       <c r="A331" s="13" t="s">
         <v>682</v>
       </c>
@@ -14728,7 +14729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11">
       <c r="A332" s="13" t="s">
         <v>684</v>
       </c>
@@ -14759,7 +14760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11">
       <c r="A333" s="13" t="s">
         <v>686</v>
       </c>
@@ -14792,7 +14793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11">
       <c r="A334" s="13" t="s">
         <v>688</v>
       </c>
@@ -14825,7 +14826,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11">
       <c r="A335" s="13" t="s">
         <v>690</v>
       </c>
@@ -14860,7 +14861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11">
       <c r="A336" s="13" t="s">
         <v>692</v>
       </c>
@@ -14891,7 +14892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11">
       <c r="A337" s="13" t="s">
         <v>694</v>
       </c>
@@ -14924,7 +14925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11">
       <c r="A338" s="13" t="s">
         <v>696</v>
       </c>
@@ -14953,7 +14954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11">
       <c r="A339" s="13" t="s">
         <v>698</v>
       </c>
@@ -14986,7 +14987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11">
       <c r="A340" s="13" t="s">
         <v>700</v>
       </c>
@@ -15019,7 +15020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11">
       <c r="A341" s="13" t="s">
         <v>702</v>
       </c>
@@ -15050,7 +15051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11">
       <c r="A342" s="13" t="s">
         <v>704</v>
       </c>
@@ -15081,7 +15082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11">
       <c r="A343" s="13" t="s">
         <v>706</v>
       </c>
@@ -15116,7 +15117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11">
       <c r="A344" s="13" t="s">
         <v>708</v>
       </c>
@@ -15151,7 +15152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11">
       <c r="A345" s="13" t="s">
         <v>710</v>
       </c>
@@ -15186,7 +15187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11">
       <c r="A346" s="13" t="s">
         <v>712</v>
       </c>
@@ -15219,7 +15220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11">
       <c r="A347" s="13" t="s">
         <v>714</v>
       </c>
@@ -15254,7 +15255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11">
       <c r="A348" s="13" t="s">
         <v>716</v>
       </c>
@@ -15289,7 +15290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11">
       <c r="A349" s="13" t="s">
         <v>718</v>
       </c>
@@ -15324,7 +15325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11">
       <c r="A350" s="13" t="s">
         <v>720</v>
       </c>
@@ -15359,7 +15360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11">
       <c r="A351" s="13" t="s">
         <v>722</v>
       </c>
@@ -15394,7 +15395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11">
       <c r="A352" s="13" t="s">
         <v>724</v>
       </c>
@@ -15429,7 +15430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11">
       <c r="A353" s="13" t="s">
         <v>726</v>
       </c>
@@ -15462,7 +15463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11">
       <c r="A354" s="13" t="s">
         <v>728</v>
       </c>
@@ -15493,7 +15494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11">
       <c r="A355" s="13" t="s">
         <v>730</v>
       </c>
@@ -15526,7 +15527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11">
       <c r="A356" s="13" t="s">
         <v>732</v>
       </c>
@@ -15559,7 +15560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11">
       <c r="A357" s="13" t="s">
         <v>734</v>
       </c>
@@ -15594,7 +15595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11">
       <c r="A358" s="13" t="s">
         <v>736</v>
       </c>
@@ -15625,7 +15626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11">
       <c r="A359" s="13" t="s">
         <v>738</v>
       </c>
@@ -15660,7 +15661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11">
       <c r="A360" s="13" t="s">
         <v>740</v>
       </c>
@@ -15693,7 +15694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11">
       <c r="A361" s="13" t="s">
         <v>742</v>
       </c>
@@ -15724,7 +15725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11">
       <c r="A362" s="13" t="s">
         <v>744</v>
       </c>
@@ -15759,7 +15760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11">
       <c r="A363" s="13" t="s">
         <v>746</v>
       </c>
@@ -15794,7 +15795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11">
       <c r="A364" s="13" t="s">
         <v>748</v>
       </c>
@@ -15825,7 +15826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11">
       <c r="A365" s="13" t="s">
         <v>750</v>
       </c>
@@ -15856,7 +15857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11">
       <c r="A366" s="13" t="s">
         <v>752</v>
       </c>
@@ -15889,7 +15890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11">
       <c r="A367" s="13" t="s">
         <v>754</v>
       </c>
@@ -15922,7 +15923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11">
       <c r="A368" s="13" t="s">
         <v>756</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11">
       <c r="A369" s="13" t="s">
         <v>758</v>
       </c>
@@ -15986,7 +15987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11">
       <c r="A370" s="13" t="s">
         <v>760</v>
       </c>
@@ -16019,7 +16020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11">
       <c r="A371" s="13" t="s">
         <v>762</v>
       </c>
@@ -16050,7 +16051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11">
       <c r="A372" s="13" t="s">
         <v>764</v>
       </c>
@@ -16083,7 +16084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11">
       <c r="A373" s="13" t="s">
         <v>766</v>
       </c>
@@ -16116,7 +16117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11">
       <c r="A374" s="13" t="s">
         <v>768</v>
       </c>
@@ -16147,7 +16148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11">
       <c r="A375" s="13" t="s">
         <v>770</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11">
       <c r="A376" s="13" t="s">
         <v>772</v>
       </c>
@@ -16211,7 +16212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11">
       <c r="A377" s="13" t="s">
         <v>774</v>
       </c>
@@ -16244,7 +16245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11">
       <c r="A378" s="13" t="s">
         <v>777</v>
       </c>
@@ -16277,7 +16278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11">
       <c r="A379" s="13" t="s">
         <v>779</v>
       </c>
@@ -16312,7 +16313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11">
       <c r="A380" s="13" t="s">
         <v>781</v>
       </c>
@@ -16345,7 +16346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11">
       <c r="A381" s="13" t="s">
         <v>783</v>
       </c>
@@ -16378,7 +16379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11">
       <c r="A382" s="13" t="s">
         <v>785</v>
       </c>
@@ -16411,7 +16412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11">
       <c r="A383" s="13" t="s">
         <v>787</v>
       </c>
@@ -16444,7 +16445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11">
       <c r="A384" s="13" t="s">
         <v>789</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11">
       <c r="A385" s="13" t="s">
         <v>791</v>
       </c>
@@ -16510,7 +16511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11">
       <c r="A386" s="13" t="s">
         <v>793</v>
       </c>
@@ -16543,7 +16544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11">
       <c r="A387" s="13" t="s">
         <v>795</v>
       </c>
@@ -16576,7 +16577,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11">
       <c r="A388" s="13" t="s">
         <v>797</v>
       </c>
@@ -16609,7 +16610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11">
       <c r="A389" s="13" t="s">
         <v>799</v>
       </c>
@@ -16644,7 +16645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11">
       <c r="A390" s="13" t="s">
         <v>801</v>
       </c>
@@ -16679,7 +16680,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11">
       <c r="A391" s="13" t="s">
         <v>803</v>
       </c>
@@ -16712,7 +16713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11">
       <c r="A392" s="13" t="s">
         <v>805</v>
       </c>
@@ -16745,7 +16746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11">
       <c r="A393" s="13" t="s">
         <v>807</v>
       </c>
@@ -16778,7 +16779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11">
       <c r="A394" s="13" t="s">
         <v>809</v>
       </c>
@@ -16813,7 +16814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11">
       <c r="A395" s="13" t="s">
         <v>811</v>
       </c>
@@ -16846,7 +16847,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11">
       <c r="A396" s="13" t="s">
         <v>813</v>
       </c>
@@ -16881,7 +16882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11">
       <c r="A397" s="13" t="s">
         <v>815</v>
       </c>
@@ -16916,7 +16917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11">
       <c r="A398" s="13" t="s">
         <v>817</v>
       </c>
@@ -16951,7 +16952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399" s="13" t="s">
         <v>819</v>
       </c>
@@ -16986,7 +16987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11">
       <c r="A400" s="13" t="s">
         <v>821</v>
       </c>
@@ -17021,7 +17022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11">
       <c r="A401" s="13" t="s">
         <v>823</v>
       </c>
@@ -17056,7 +17057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11">
       <c r="A402" s="13" t="s">
         <v>825</v>
       </c>
@@ -17091,7 +17092,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11">
       <c r="A403" s="13" t="s">
         <v>827</v>
       </c>
@@ -17124,7 +17125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11">
       <c r="A404" s="13" t="s">
         <v>829</v>
       </c>
@@ -17159,7 +17160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11">
       <c r="A405" s="13" t="s">
         <v>831</v>
       </c>
@@ -17192,7 +17193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11">
       <c r="A406" s="13" t="s">
         <v>833</v>
       </c>
@@ -17227,7 +17228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11">
       <c r="A407" s="13" t="s">
         <v>835</v>
       </c>
@@ -17260,7 +17261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11">
       <c r="A408" s="13" t="s">
         <v>837</v>
       </c>
@@ -17295,7 +17296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11">
       <c r="A409" s="13" t="s">
         <v>839</v>
       </c>
@@ -17328,7 +17329,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11">
       <c r="A410" s="13" t="s">
         <v>841</v>
       </c>
@@ -17363,7 +17364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11">
       <c r="A411" s="13" t="s">
         <v>843</v>
       </c>
@@ -17398,7 +17399,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11">
       <c r="A412" s="13" t="s">
         <v>845</v>
       </c>
@@ -17431,7 +17432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11">
       <c r="A413" s="13" t="s">
         <v>847</v>
       </c>
@@ -17464,7 +17465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11">
       <c r="A414" s="13" t="s">
         <v>849</v>
       </c>
@@ -17497,7 +17498,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11">
       <c r="A415" s="13" t="s">
         <v>851</v>
       </c>
@@ -17532,7 +17533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11">
       <c r="A416" s="13" t="s">
         <v>853</v>
       </c>
@@ -17567,7 +17568,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11">
       <c r="A417" s="13" t="s">
         <v>855</v>
       </c>
@@ -17600,7 +17601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11">
       <c r="A418" s="13" t="s">
         <v>857</v>
       </c>
@@ -17633,7 +17634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11">
       <c r="A419" s="13" t="s">
         <v>859</v>
       </c>
@@ -17668,7 +17669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11">
       <c r="A420" s="13" t="s">
         <v>861</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11">
       <c r="A421" s="13" t="s">
         <v>863</v>
       </c>
@@ -17738,7 +17739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11">
       <c r="A422" s="13" t="s">
         <v>865</v>
       </c>
@@ -17773,7 +17774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11">
       <c r="A423" s="13" t="s">
         <v>867</v>
       </c>
@@ -17808,7 +17809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11">
       <c r="A424" s="13" t="s">
         <v>869</v>
       </c>
@@ -17841,7 +17842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11">
       <c r="A425" s="13" t="s">
         <v>871</v>
       </c>
@@ -17876,7 +17877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11">
       <c r="A426" s="13" t="s">
         <v>873</v>
       </c>
@@ -17909,7 +17910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11">
       <c r="A427" s="13" t="s">
         <v>875</v>
       </c>
@@ -17942,7 +17943,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11">
       <c r="A428" s="13" t="s">
         <v>877</v>
       </c>
@@ -17975,7 +17976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11">
       <c r="A429" s="13" t="s">
         <v>879</v>
       </c>
@@ -18008,7 +18009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11">
       <c r="A430" s="13" t="s">
         <v>881</v>
       </c>
@@ -18041,7 +18042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11">
       <c r="A431" s="13" t="s">
         <v>883</v>
       </c>
@@ -18074,7 +18075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11">
       <c r="A432" s="13" t="s">
         <v>885</v>
       </c>
@@ -18107,7 +18108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11">
       <c r="A433" s="13" t="s">
         <v>887</v>
       </c>
@@ -18142,7 +18143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11">
       <c r="A434" s="13" t="s">
         <v>889</v>
       </c>
@@ -18177,7 +18178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11">
       <c r="A435" s="13" t="s">
         <v>891</v>
       </c>
@@ -18212,7 +18213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11">
       <c r="A436" s="13" t="s">
         <v>893</v>
       </c>
@@ -18245,7 +18246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11">
       <c r="A437" s="13" t="s">
         <v>895</v>
       </c>
@@ -18278,7 +18279,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11">
       <c r="A438" s="13" t="s">
         <v>897</v>
       </c>
@@ -18311,7 +18312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11">
       <c r="A439" s="13" t="s">
         <v>899</v>
       </c>
@@ -18346,7 +18347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11">
       <c r="A440" s="13" t="s">
         <v>901</v>
       </c>
@@ -18379,7 +18380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11">
       <c r="A441" s="13" t="s">
         <v>903</v>
       </c>
@@ -18414,7 +18415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11">
       <c r="A442" s="13" t="s">
         <v>905</v>
       </c>
@@ -18447,7 +18448,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11">
       <c r="A443" s="13" t="s">
         <v>907</v>
       </c>
@@ -18482,7 +18483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11">
       <c r="A444" s="13" t="s">
         <v>909</v>
       </c>
@@ -18517,7 +18518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11">
       <c r="A445" s="13" t="s">
         <v>911</v>
       </c>
@@ -18550,7 +18551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11">
       <c r="A446" s="13" t="s">
         <v>913</v>
       </c>
@@ -18585,7 +18586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11">
       <c r="A447" s="13" t="s">
         <v>915</v>
       </c>
@@ -18620,7 +18621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11">
       <c r="A448" s="13" t="s">
         <v>917</v>
       </c>
@@ -18655,7 +18656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11">
       <c r="A449" s="13" t="s">
         <v>919</v>
       </c>
@@ -18688,7 +18689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11">
       <c r="A450" s="13" t="s">
         <v>921</v>
       </c>
@@ -18721,7 +18722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11">
       <c r="A451" s="13" t="s">
         <v>923</v>
       </c>
@@ -18754,7 +18755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11">
       <c r="A452" s="13" t="s">
         <v>925</v>
       </c>
@@ -18787,7 +18788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11">
       <c r="A453" s="13" t="s">
         <v>927</v>
       </c>
@@ -18820,7 +18821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11">
       <c r="A454" s="13" t="s">
         <v>929</v>
       </c>
@@ -18853,7 +18854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11">
       <c r="A455" s="13" t="s">
         <v>931</v>
       </c>
@@ -18888,7 +18889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11">
       <c r="A456" s="13" t="s">
         <v>933</v>
       </c>
@@ -18921,7 +18922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11">
       <c r="A457" s="13" t="s">
         <v>935</v>
       </c>
@@ -18954,7 +18955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11">
       <c r="A458" s="13" t="s">
         <v>937</v>
       </c>
@@ -18987,7 +18988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11">
       <c r="A459" s="13" t="s">
         <v>939</v>
       </c>
@@ -19022,7 +19023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11">
       <c r="A460" s="13" t="s">
         <v>941</v>
       </c>
@@ -19055,7 +19056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11">
       <c r="A461" s="13" t="s">
         <v>943</v>
       </c>
@@ -19088,7 +19089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11">
       <c r="A462" s="13" t="s">
         <v>945</v>
       </c>
@@ -19121,7 +19122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11">
       <c r="A463" s="13" t="s">
         <v>947</v>
       </c>
@@ -19154,7 +19155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11">
       <c r="A464" s="13" t="s">
         <v>949</v>
       </c>
@@ -19189,7 +19190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11">
       <c r="A465" s="13" t="s">
         <v>951</v>
       </c>
@@ -19224,7 +19225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11">
       <c r="A466" s="13" t="s">
         <v>953</v>
       </c>
@@ -19259,7 +19260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11">
       <c r="A467" s="13" t="s">
         <v>955</v>
       </c>
@@ -19294,7 +19295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11">
       <c r="A468" s="13" t="s">
         <v>957</v>
       </c>
@@ -19329,7 +19330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11">
       <c r="A469" s="13" t="s">
         <v>959</v>
       </c>
@@ -19364,7 +19365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11">
       <c r="A470" s="13" t="s">
         <v>961</v>
       </c>
@@ -19399,7 +19400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11">
       <c r="A471" s="13" t="s">
         <v>963</v>
       </c>
@@ -19434,7 +19435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11">
       <c r="A472" s="13" t="s">
         <v>965</v>
       </c>
@@ -19467,7 +19468,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11">
       <c r="A473" s="13" t="s">
         <v>967</v>
       </c>
@@ -19502,7 +19503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11">
       <c r="A474" s="13" t="s">
         <v>969</v>
       </c>
@@ -19537,7 +19538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11">
       <c r="A475" s="13" t="s">
         <v>971</v>
       </c>
@@ -19570,7 +19571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11">
       <c r="A476" s="13" t="s">
         <v>973</v>
       </c>
@@ -19603,7 +19604,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11">
       <c r="A477" s="13" t="s">
         <v>975</v>
       </c>
@@ -19638,7 +19639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11">
       <c r="A478" s="13" t="s">
         <v>977</v>
       </c>
@@ -19671,7 +19672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11">
       <c r="A479" s="13" t="s">
         <v>979</v>
       </c>
@@ -19704,7 +19705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11">
       <c r="A480" s="13" t="s">
         <v>981</v>
       </c>
@@ -19739,7 +19740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11">
       <c r="A481" s="13" t="s">
         <v>983</v>
       </c>
@@ -19772,7 +19773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11">
       <c r="A482" s="13" t="s">
         <v>985</v>
       </c>
@@ -19805,7 +19806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11">
       <c r="A483" s="13" t="s">
         <v>987</v>
       </c>
@@ -19838,7 +19839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11">
       <c r="A484" s="13" t="s">
         <v>989</v>
       </c>
@@ -19873,7 +19874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11">
       <c r="A485" s="13" t="s">
         <v>991</v>
       </c>
@@ -19906,7 +19907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11">
       <c r="A486" s="13" t="s">
         <v>993</v>
       </c>
@@ -19939,7 +19940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11">
       <c r="A487" s="13" t="s">
         <v>995</v>
       </c>
@@ -19972,7 +19973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11">
       <c r="A488" s="13" t="s">
         <v>997</v>
       </c>
@@ -20007,7 +20008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11">
       <c r="A489" s="13" t="s">
         <v>999</v>
       </c>
@@ -20040,7 +20041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11">
       <c r="A490" s="13" t="s">
         <v>1001</v>
       </c>
@@ -20073,7 +20074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11">
       <c r="A491" s="13" t="s">
         <v>1003</v>
       </c>
@@ -20108,7 +20109,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11">
       <c r="A492" s="13" t="s">
         <v>1005</v>
       </c>
@@ -20141,7 +20142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11">
       <c r="A493" s="13" t="s">
         <v>1007</v>
       </c>
@@ -20176,7 +20177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11">
       <c r="A494" s="13" t="s">
         <v>1009</v>
       </c>
@@ -20209,7 +20210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11">
       <c r="A495" s="13" t="s">
         <v>1011</v>
       </c>
@@ -20242,7 +20243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11">
       <c r="A496" s="13" t="s">
         <v>1013</v>
       </c>
@@ -20277,7 +20278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11">
       <c r="A497" s="13" t="s">
         <v>1015</v>
       </c>
@@ -20312,7 +20313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11">
       <c r="A498" s="13" t="s">
         <v>1017</v>
       </c>
@@ -20345,7 +20346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11">
       <c r="A499" s="13" t="s">
         <v>1019</v>
       </c>
@@ -20378,7 +20379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11">
       <c r="A500" s="13" t="s">
         <v>1021</v>
       </c>
@@ -20413,7 +20414,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11">
       <c r="A501" s="13" t="s">
         <v>1023</v>
       </c>
@@ -20446,7 +20447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11">
       <c r="A502" s="13" t="s">
         <v>1025</v>
       </c>
@@ -20481,7 +20482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11">
       <c r="A503" s="13" t="s">
         <v>1027</v>
       </c>
@@ -20514,7 +20515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11">
       <c r="A504" s="13" t="s">
         <v>1029</v>
       </c>
@@ -20547,7 +20548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11">
       <c r="A505" s="13" t="s">
         <v>1031</v>
       </c>
@@ -20582,7 +20583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11">
       <c r="A506" s="13" t="s">
         <v>1033</v>
       </c>
@@ -20617,7 +20618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11">
       <c r="A507" s="13" t="s">
         <v>1035</v>
       </c>
@@ -20652,7 +20653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11">
       <c r="A508" s="13" t="s">
         <v>1037</v>
       </c>
@@ -20687,7 +20688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11">
       <c r="A509" s="13" t="s">
         <v>1039</v>
       </c>
@@ -20722,7 +20723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11">
       <c r="A510" s="13" t="s">
         <v>1041</v>
       </c>
@@ -20757,7 +20758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11">
       <c r="A511" s="13" t="s">
         <v>1043</v>
       </c>
@@ -20792,7 +20793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11">
       <c r="A512" s="13" t="s">
         <v>1045</v>
       </c>
@@ -20827,7 +20828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11">
       <c r="A513" s="13" t="s">
         <v>1047</v>
       </c>
@@ -20862,7 +20863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11">
       <c r="A514" s="13" t="s">
         <v>1049</v>
       </c>
@@ -20895,7 +20896,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11">
       <c r="A515" s="13" t="s">
         <v>1051</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11">
       <c r="A516" s="13" t="s">
         <v>1053</v>
       </c>
@@ -20963,7 +20964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11">
       <c r="A517" s="13" t="s">
         <v>1055</v>
       </c>
@@ -20996,7 +20997,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11">
       <c r="A518" s="13" t="s">
         <v>1057</v>
       </c>
@@ -21031,7 +21032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11">
       <c r="A519" s="13" t="s">
         <v>1059</v>
       </c>
@@ -21064,7 +21065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11">
       <c r="A520" s="13" t="s">
         <v>1061</v>
       </c>
@@ -21099,7 +21100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11">
       <c r="A521" s="13" t="s">
         <v>1063</v>
       </c>
@@ -21134,7 +21135,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11">
       <c r="A522" s="13" t="s">
         <v>1065</v>
       </c>
@@ -21169,7 +21170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11">
       <c r="A523" s="13" t="s">
         <v>1067</v>
       </c>
@@ -21202,7 +21203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11">
       <c r="A524" s="13" t="s">
         <v>1069</v>
       </c>
@@ -21237,7 +21238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11">
       <c r="A525" s="13" t="s">
         <v>1071</v>
       </c>
@@ -21272,7 +21273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11">
       <c r="A526" s="13" t="s">
         <v>1073</v>
       </c>
@@ -21307,7 +21308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11">
       <c r="A527" s="13" t="s">
         <v>1075</v>
       </c>
@@ -21340,7 +21341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11">
       <c r="A528" s="13" t="s">
         <v>1077</v>
       </c>
@@ -21375,7 +21376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11">
       <c r="A529" s="13" t="s">
         <v>1079</v>
       </c>
@@ -21408,7 +21409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11">
       <c r="A530" s="13" t="s">
         <v>1081</v>
       </c>
@@ -21441,7 +21442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11">
       <c r="A531" s="13" t="s">
         <v>1083</v>
       </c>
@@ -21476,7 +21477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11">
       <c r="A532" s="13" t="s">
         <v>1085</v>
       </c>
@@ -21509,7 +21510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11">
       <c r="A533" s="13" t="s">
         <v>1087</v>
       </c>
@@ -21542,7 +21543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11">
       <c r="A534" s="13" t="s">
         <v>1089</v>
       </c>
@@ -21575,7 +21576,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11">
       <c r="A535" s="13" t="s">
         <v>1091</v>
       </c>
@@ -21608,7 +21609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11">
       <c r="A536" s="13" t="s">
         <v>1093</v>
       </c>
@@ -21643,7 +21644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11">
       <c r="A537" s="13" t="s">
         <v>1095</v>
       </c>
@@ -21678,7 +21679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11">
       <c r="A538" s="13" t="s">
         <v>1097</v>
       </c>
@@ -21713,7 +21714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11">
       <c r="A539" s="13" t="s">
         <v>1099</v>
       </c>
@@ -21748,7 +21749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11">
       <c r="A540" s="13" t="s">
         <v>1101</v>
       </c>
@@ -21783,7 +21784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11">
       <c r="A541" s="13" t="s">
         <v>1103</v>
       </c>
@@ -21818,7 +21819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11">
       <c r="A542" s="13" t="s">
         <v>1105</v>
       </c>
@@ -21851,7 +21852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11">
       <c r="A543" s="13" t="s">
         <v>1107</v>
       </c>
@@ -21884,7 +21885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11">
       <c r="A544" s="13" t="s">
         <v>1109</v>
       </c>
@@ -21917,7 +21918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11">
       <c r="A545" s="13" t="s">
         <v>1111</v>
       </c>
@@ -21952,7 +21953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11">
       <c r="A546" s="13" t="s">
         <v>1113</v>
       </c>
@@ -21987,7 +21988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11">
       <c r="A547" s="13" t="s">
         <v>1115</v>
       </c>
@@ -22022,7 +22023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11">
       <c r="A548" s="13" t="s">
         <v>1117</v>
       </c>
@@ -22055,7 +22056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11">
       <c r="A549" s="13" t="s">
         <v>1119</v>
       </c>
@@ -22090,7 +22091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11">
       <c r="A550" s="13" t="s">
         <v>1121</v>
       </c>
@@ -22123,7 +22124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11">
       <c r="A551" s="13" t="s">
         <v>1123</v>
       </c>
@@ -22156,7 +22157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11">
       <c r="A552" s="13" t="s">
         <v>1125</v>
       </c>
@@ -22189,7 +22190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11">
       <c r="A553" s="13" t="s">
         <v>1127</v>
       </c>
@@ -22224,7 +22225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11">
       <c r="A554" s="13" t="s">
         <v>1129</v>
       </c>
@@ -22259,7 +22260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11">
       <c r="A555" s="13" t="s">
         <v>1131</v>
       </c>
@@ -22292,7 +22293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11">
       <c r="A556" s="13" t="s">
         <v>1133</v>
       </c>
@@ -22327,7 +22328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11">
       <c r="A557" s="13" t="s">
         <v>1135</v>
       </c>
@@ -22360,7 +22361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11">
       <c r="A558" s="13" t="s">
         <v>1137</v>
       </c>
@@ -22393,7 +22394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11">
       <c r="A559" s="13" t="s">
         <v>1139</v>
       </c>
@@ -22426,7 +22427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11">
       <c r="A560" s="13" t="s">
         <v>1141</v>
       </c>
@@ -22459,7 +22460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11">
       <c r="A561" s="13" t="s">
         <v>1143</v>
       </c>
@@ -22492,7 +22493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11">
       <c r="A562" s="13" t="s">
         <v>1145</v>
       </c>
@@ -22527,7 +22528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11">
       <c r="A563" s="13" t="s">
         <v>1147</v>
       </c>
@@ -22560,7 +22561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11">
       <c r="A564" s="13" t="s">
         <v>1149</v>
       </c>
@@ -22595,7 +22596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11">
       <c r="A565" s="13" t="s">
         <v>1151</v>
       </c>
@@ -22628,7 +22629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11">
       <c r="A566" s="13" t="s">
         <v>1153</v>
       </c>
@@ -22661,7 +22662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11">
       <c r="A567" s="13" t="s">
         <v>1155</v>
       </c>
@@ -22696,7 +22697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11">
       <c r="A568" s="13" t="s">
         <v>1157</v>
       </c>
@@ -22731,7 +22732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11">
       <c r="A569" s="13" t="s">
         <v>1159</v>
       </c>
@@ -22766,7 +22767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11">
       <c r="A570" s="13" t="s">
         <v>1161</v>
       </c>
@@ -22801,7 +22802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11">
       <c r="A571" s="13" t="s">
         <v>1163</v>
       </c>
@@ -22834,7 +22835,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11">
       <c r="A572" s="13" t="s">
         <v>1165</v>
       </c>
@@ -22867,7 +22868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11">
       <c r="A573" s="13" t="s">
         <v>1167</v>
       </c>
@@ -22900,7 +22901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11">
       <c r="A574" s="13" t="s">
         <v>1169</v>
       </c>
@@ -22933,7 +22934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11">
       <c r="A575" s="13" t="s">
         <v>1171</v>
       </c>
@@ -22968,7 +22969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11">
       <c r="A576" s="13" t="s">
         <v>1173</v>
       </c>
@@ -23003,7 +23004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11">
       <c r="A577" s="13" t="s">
         <v>1175</v>
       </c>
@@ -23036,7 +23037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11">
       <c r="A578" s="13" t="s">
         <v>1177</v>
       </c>
@@ -23069,7 +23070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11">
       <c r="A579" s="13" t="s">
         <v>1179</v>
       </c>
